--- a/output/translated_instructions.xlsx
+++ b/output/translated_instructions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,131 +458,114 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MOV R0,[A]</t>
+          <t xml:space="preserve"> MOV R1,R2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 10  20 20 00 00 00            </t>
+          <t xml:space="preserve">  10 11  12             </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00010007</t>
+          <t>00010003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CMP R0,[B]</t>
+          <t xml:space="preserve"> DEC R2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  26 10  20 00 02 00 00            </t>
+          <t xml:space="preserve">  25 12                 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0001000E</t>
+          <t>00010005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JLE E1</t>
+          <t xml:space="preserve"> JE E2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 60 08 00                      </t>
+          <t xml:space="preserve">  41 60 09 00           </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00010012</t>
+          <t>00010009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEC R0</t>
+          <t xml:space="preserve"> MUL R1,R2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  25 10                            </t>
+          <t xml:space="preserve">  22 11  12             </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00010014</t>
+          <t>0001000C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JMP E2</t>
+          <t xml:space="preserve"> JMP E1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  40 00 25 00 01 00                </t>
+          <t xml:space="preserve">  40 00 03 00 01 00     </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0001001A</t>
+          <t>00010012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ADD [B],4</t>
+          <t xml:space="preserve"> MOV R3,4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 20 00 02 00 00 04 04 00 00 00 </t>
+          <t xml:space="preserve">  10 13  04 04 00 00 00 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00010025</t>
+          <t>00010019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUL [B],R0</t>
+          <t xml:space="preserve"> MOV [100+R3],R1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  22 20 04 02 00 00 10             </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0001002C</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MOV [A],R0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  10 20 20 00 00 00 10             </t>
+          <t xml:space="preserve">  10 53 64 00 00 00 11  </t>
         </is>
       </c>
     </row>
